--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Travers.Spring.030520.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Travers.Spring.030520.xlsx_with_dialog_acts.xlsx
@@ -807,12 +807,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2067,12 +2067,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2151,12 +2151,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2319,12 +2319,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2403,12 +2403,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2823,12 +2823,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3075,12 +3075,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3327,12 +3327,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3411,12 +3411,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3579,12 +3579,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3999,12 +3999,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4083,12 +4083,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4293,12 +4293,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4377,12 +4377,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4419,12 +4419,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4545,12 +4545,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4671,12 +4671,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4755,12 +4755,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4797,12 +4797,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5175,12 +5175,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5217,12 +5217,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5553,12 +5553,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5763,12 +5763,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5847,12 +5847,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5889,12 +5889,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6015,12 +6015,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6309,12 +6309,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6351,12 +6351,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6645,12 +6645,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6687,12 +6687,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6729,12 +6729,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6813,12 +6813,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6855,12 +6855,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7149,12 +7149,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7653,12 +7653,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7779,12 +7779,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8073,12 +8073,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8367,12 +8367,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8703,12 +8703,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8871,12 +8871,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9123,12 +9123,12 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9291,12 +9291,12 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9333,12 +9333,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9673,12 +9673,12 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9757,12 +9757,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10009,12 +10009,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10135,12 +10135,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10177,12 +10177,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10349,12 +10349,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10475,12 +10475,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10937,12 +10937,12 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11021,12 +11021,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11781,12 +11781,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11865,12 +11865,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12503,12 +12503,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13263,12 +13263,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13389,12 +13389,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13599,12 +13599,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13809,12 +13809,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13851,12 +13851,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13935,12 +13935,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14019,12 +14019,12 @@
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15027,12 +15027,12 @@
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15195,12 +15195,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15825,12 +15825,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16497,12 +16497,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16669,12 +16669,12 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17009,12 +17009,12 @@
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17269,12 +17269,12 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17311,12 +17311,12 @@
       <c r="H401" t="inlineStr"/>
       <c r="I401" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17819,12 +17819,12 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18457,12 +18457,12 @@
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18965,12 +18965,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19385,12 +19385,12 @@
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20515,12 +20515,12 @@
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20599,12 +20599,12 @@
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20893,12 +20893,12 @@
       <c r="H486" t="inlineStr"/>
       <c r="I486" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21103,12 +21103,12 @@
       <c r="H491" t="inlineStr"/>
       <c r="I491" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21145,12 +21145,12 @@
       <c r="H492" t="inlineStr"/>
       <c r="I492" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21313,12 +21313,12 @@
       <c r="H496" t="inlineStr"/>
       <c r="I496" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21565,12 +21565,12 @@
       <c r="H502" t="inlineStr"/>
       <c r="I502" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21817,12 +21817,12 @@
       <c r="H508" t="inlineStr"/>
       <c r="I508" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22237,12 +22237,12 @@
       <c r="H518" t="inlineStr"/>
       <c r="I518" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22825,12 +22825,12 @@
       <c r="H532" t="inlineStr"/>
       <c r="I532" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23287,12 +23287,12 @@
       <c r="H543" t="inlineStr"/>
       <c r="I543" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23959,12 +23959,12 @@
       <c r="H559" t="inlineStr"/>
       <c r="I559" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24001,12 +24001,12 @@
       <c r="H560" t="inlineStr"/>
       <c r="I560" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24429,12 +24429,12 @@
       <c r="H570" t="inlineStr"/>
       <c r="I570" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24895,12 +24895,12 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25105,12 +25105,12 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25315,12 +25315,12 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25483,12 +25483,12 @@
       <c r="H595" t="inlineStr"/>
       <c r="I595" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25777,12 +25777,12 @@
       <c r="H602" t="inlineStr"/>
       <c r="I602" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25945,12 +25945,12 @@
       <c r="H606" t="inlineStr"/>
       <c r="I606" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26071,12 +26071,12 @@
       <c r="H609" t="inlineStr"/>
       <c r="I609" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26197,12 +26197,12 @@
       <c r="H612" t="inlineStr"/>
       <c r="I612" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27121,12 +27121,12 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27499,12 +27499,12 @@
       <c r="H643" t="inlineStr"/>
       <c r="I643" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27625,12 +27625,12 @@
       <c r="H646" t="inlineStr"/>
       <c r="I646" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28339,12 +28339,12 @@
       <c r="H663" t="inlineStr"/>
       <c r="I663" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28591,12 +28591,12 @@
       <c r="H669" t="inlineStr"/>
       <c r="I669" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28633,12 +28633,12 @@
       <c r="H670" t="inlineStr"/>
       <c r="I670" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28927,12 +28927,12 @@
       <c r="H677" t="inlineStr"/>
       <c r="I677" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29053,12 +29053,12 @@
       <c r="H680" t="inlineStr"/>
       <c r="I680" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29263,12 +29263,12 @@
       <c r="H685" t="inlineStr"/>
       <c r="I685" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29473,12 +29473,12 @@
       <c r="H690" t="inlineStr"/>
       <c r="I690" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J690" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
